--- a/excelSheet/LibertyMutual.xlsx
+++ b/excelSheet/LibertyMutual.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rayhanrahman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEF54E7-6BFE-E043-8B8D-D0381FC3EC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82772B0-3E51-F948-98AE-A8BE625F6AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{29952E6D-2F01-AC47-8EF9-6706DA161823}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="1" xr2:uid="{29952E6D-2F01-AC47-8EF9-6706DA161823}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -43,13 +44,28 @@
   </si>
   <si>
     <t>75sS</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>staddress</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>1245 brucner blvd</t>
+  </si>
+  <si>
+    <t>fl-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,8 +101,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +131,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,11 +157,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9801E1F8-5BB9-FF45-B010-14DC1DFDF7F1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -473,4 +514,46 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5914C4-36E8-1D4A-BD2B-182942E08A45}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24">
+      <c r="A2" s="5">
+        <v>10473</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>